--- a/data/all-region-2023-wide.xlsx
+++ b/data/all-region-2023-wide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsharma/Downloads/fit3179-a2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A35A4A-B7BC-FB4F-9CEB-C64DFE28E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F4849E-E1AD-F840-97E2-3B48B03E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15340" xr2:uid="{C61F9C79-6D9E-3047-A183-181470E2D31E}"/>
+    <workbookView xWindow="8440" yWindow="3160" windowWidth="27240" windowHeight="15340" xr2:uid="{C61F9C79-6D9E-3047-A183-181470E2D31E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Total Population</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Western</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -452,127 +455,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8544C00-837F-0F4D-AA4C-FF5908106277}">
-  <dimension ref="B3:F9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1">
+        <v>949813</v>
+      </c>
+      <c r="C2" s="1">
+        <v>467676</v>
+      </c>
+      <c r="D2" s="1">
+        <v>481931</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>384875</v>
+      </c>
+      <c r="C3" s="1">
+        <v>190382</v>
+      </c>
+      <c r="D3" s="1">
+        <v>193977</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>547253</v>
+      </c>
       <c r="C4" s="1">
-        <v>949813</v>
+        <v>263306</v>
       </c>
       <c r="D4" s="1">
-        <v>467676</v>
+        <v>283675</v>
       </c>
       <c r="E4" s="1">
-        <v>481931</v>
-      </c>
-      <c r="F4" s="1">
-        <v>40.049999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1091310</v>
       </c>
       <c r="C5" s="1">
-        <v>384875</v>
+        <v>540882</v>
       </c>
       <c r="D5" s="1">
-        <v>190382</v>
+        <v>550406</v>
       </c>
       <c r="E5" s="1">
-        <v>193977</v>
-      </c>
-      <c r="F5" s="1">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1159605</v>
       </c>
       <c r="C6" s="1">
-        <v>547253</v>
+        <v>575471</v>
       </c>
       <c r="D6" s="1">
-        <v>263306</v>
+        <v>584184</v>
       </c>
       <c r="E6" s="1">
-        <v>283675</v>
-      </c>
-      <c r="F6" s="1">
-        <v>38.6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1091310</v>
-      </c>
-      <c r="D7" s="1">
-        <v>540882</v>
-      </c>
-      <c r="E7" s="1">
-        <v>550406</v>
-      </c>
-      <c r="F7" s="1">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1159605</v>
-      </c>
-      <c r="D8" s="1">
-        <v>575471</v>
-      </c>
-      <c r="E8" s="1">
-        <v>584184</v>
-      </c>
-      <c r="F8" s="1">
         <v>37.65</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B7" s="2">
         <v>1038156</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C7" s="2">
         <v>520412</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D7" s="2">
         <v>517777</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E7" s="2">
         <v>36.5</v>
       </c>
     </row>
